--- a/Test protocol/Sprint_3/NL/System Test protocol_Braille DP2_Sprint 3_NL.xlsx
+++ b/Test protocol/Sprint_3/NL/System Test protocol_Braille DP2_Sprint 3_NL.xlsx
@@ -2677,11 +2677,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="42" t="s">
         <v>125</v>
       </c>
       <c r="C19" s="44" t="s">

--- a/Test protocol/Sprint_3/NL/System Test protocol_Braille DP2_Sprint 3_NL.xlsx
+++ b/Test protocol/Sprint_3/NL/System Test protocol_Braille DP2_Sprint 3_NL.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="130">
   <si>
     <t>Requirement ID:</t>
   </si>
@@ -2488,8 +2488,8 @@
   <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2764,9 +2764,7 @@
       <c r="B28" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="34" t="s">
-        <v>91</v>
-      </c>
+      <c r="C28" s="34"/>
     </row>
     <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>

--- a/Test protocol/Sprint_3/NL/System Test protocol_Braille DP2_Sprint 3_NL.xlsx
+++ b/Test protocol/Sprint_3/NL/System Test protocol_Braille DP2_Sprint 3_NL.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="132">
   <si>
     <t>Requirement ID:</t>
   </si>
@@ -590,6 +590,12 @@
   </si>
   <si>
     <t>https://github.com/snaekobbi/testing/pull/4</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/snaekobbi/testing/master/Test%20data/Sprint_3/NL/4.3.35C/289409_Boos%20boos%20boos%204_3_35C.pef</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/snaekobbi/testing/master/Test%20data/Sprint_3/NL/4.4.54/295593_Whitespace%204_4_54.pef</t>
   </si>
 </sst>
 </file>
@@ -2488,8 +2494,8 @@
   <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <pane ySplit="6" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2764,7 +2770,9 @@
       <c r="B28" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="34"/>
+      <c r="C28" s="34" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="29" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6"/>
@@ -3179,7 +3187,7 @@
         <v>87</v>
       </c>
       <c r="C79" s="34" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -3189,7 +3197,7 @@
       <c r="B80" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="44" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3467,8 +3475,11 @@
     <hyperlink ref="C54" r:id="rId20"/>
     <hyperlink ref="C91" r:id="rId21"/>
     <hyperlink ref="C19" r:id="rId22"/>
+    <hyperlink ref="C28" r:id="rId23"/>
+    <hyperlink ref="C80" r:id="rId24"/>
+    <hyperlink ref="C79" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>